--- a/biology/Médecine/1472_en_santé_et_médecine/1472_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1472_en_santé_et_médecine/1472_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1472_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1472_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1472 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1472_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1472_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>26 juin : fondation de la Hohe Schule (« haute école ») d'Ingolstadt en Bavière, future université de Munich, où la médecine est enseignée dès l'origine[1].
-Le pape Sixte IV reconnaît que l'anatomie est « utile à la pratique médicale et artistique[2] ».
-1469-1472 : Yolande de France, duchesse de Savoie, fait construire à Chambéry l'hôpital dit « du Paradis[3] ».</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>26 juin : fondation de la Hohe Schule (« haute école ») d'Ingolstadt en Bavière, future université de Munich, où la médecine est enseignée dès l'origine.
+Le pape Sixte IV reconnaît que l'anatomie est « utile à la pratique médicale et artistique ».
+1469-1472 : Yolande de France, duchesse de Savoie, fait construire à Chambéry l'hôpital dit « du Paradis ».</t>
         </is>
       </c>
     </row>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1472_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1472_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,12 +557,14 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Paolo Bagellardo (it) (1410-1420 – 1492-1494) fait paraître son Libellus de egritudinibus infantium (« Petit traité des maladies infantiles »), premier ouvrage de pédiatrie jamais imprimé[4].
-Première édition du Canon d'Avicenne (980-1037), achevé vers 1020, édition partielle qui ne comprend que le livre III[5].
-Première édition, à Mantoue, du Conciliator differentiarum philosophorum et medicorum et du De venenis eorumque remediis, de Pierre d'Abano (c.1250-c.1318[6]).
-Première édition, à Cologne, du De salubri hortensium usu d'Arnaud de Villeneuve (1240-1311[6]).</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Paolo Bagellardo (it) (1410-1420 – 1492-1494) fait paraître son Libellus de egritudinibus infantium (« Petit traité des maladies infantiles »), premier ouvrage de pédiatrie jamais imprimé.
+Première édition du Canon d'Avicenne (980-1037), achevé vers 1020, édition partielle qui ne comprend que le livre III.
+Première édition, à Mantoue, du Conciliator differentiarum philosophorum et medicorum et du De venenis eorumque remediis, de Pierre d'Abano (c.1250-c.1318).
+Première édition, à Cologne, du De salubri hortensium usu d'Arnaud de Villeneuve (1240-1311).</t>
         </is>
       </c>
     </row>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1472_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1472_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,10 +592,12 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Giovanni Matteo Ferrari (eo) (né en 1400), professeur de médecine à l'université de Pavie, auteur d'un recueil de Consilia publiés à Pavie peu après sa mort[7].
-Jean de Wesalia (né à une date inconnue), arrière-grand-père d'André Vésale, professeur de médecine et de mathématiques à Louvain, médecin de Marie de Bourgogne, duchesse de Clèves[8].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Giovanni Matteo Ferrari (eo) (né en 1400), professeur de médecine à l'université de Pavie, auteur d'un recueil de Consilia publiés à Pavie peu après sa mort.
+Jean de Wesalia (né à une date inconnue), arrière-grand-père d'André Vésale, professeur de médecine et de mathématiques à Louvain, médecin de Marie de Bourgogne, duchesse de Clèves.</t>
         </is>
       </c>
     </row>
